--- a/日志.xlsx
+++ b/日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>画画</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,16 @@
 2、布局
 3、启动返回activity
 4、activity数据传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、资源文件使用color、diman、list数组
+2、状态列表资源
+3、给activity返回结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -405,6 +415,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -712,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -732,17 +745,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -765,7 +778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="0.75" customHeight="1">
+    <row r="3" spans="1:7" ht="0.75" hidden="1" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -774,80 +787,82 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" ht="66">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" ht="63" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="66">
+      <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B5" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="18"/>
+      <c r="E5" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F5" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="3" t="s">
-        <v>40</v>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="49.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>39</v>
+      <c r="E7" s="18"/>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="49.5">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -858,104 +873,100 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="19" t="s">
-        <v>27</v>
-      </c>
+      <c r="E10" s="24"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="49.5">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="49.5">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="33">
-      <c r="A12" s="11" t="s">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="33">
+      <c r="A13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="66">
-      <c r="A13" s="11" t="s">
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="66">
+      <c r="A14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="49.5">
-      <c r="A14" s="6">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="49.5">
+      <c r="A15" s="6">
         <v>1010</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="6">
-        <v>109</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9">
-        <v>108</v>
+      <c r="A16" s="6">
+        <v>109</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
@@ -963,21 +974,36 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="5"/>
     </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9">
+        <v>107</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>画画</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,27 +38,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>做饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英语听写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>理财</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>网上选了视频，准备下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电影：实习生，写好影评</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,25 +91,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5a private conversation
-耗时30分钟
-补写1-3的听力内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>做自己喜欢的事不会累</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>听力：breakfast or launch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给导师的礼物改了地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -230,6 +204,66 @@
     <t>1、资源文件使用color、diman、list数组
 2、状态列表资源
 3、给activity返回结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总有人做着你不敢做的事，过着你想要的生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、给导师的礼物改了地址
+2、听力：breakfast or launch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、电影：实习生，写好影评
+2、a private conversation
+耗时30分钟
+补写1-3的听力内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理菜谱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会看源码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会弹一首歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手绘板、彩铅、水彩各一张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习，把钱分配好，投资出去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发产品，放到闲鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +309,29 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -284,7 +341,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -299,19 +356,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -358,17 +402,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -380,9 +424,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -395,44 +436,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -725,287 +782,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="0.75" hidden="1" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="63" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="66">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="49.5">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="49.5">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="49.5">
+      <c r="A15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="82.5">
+      <c r="A16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G16" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="49.5">
+      <c r="A17" s="5">
+        <v>1010</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5">
+        <v>109</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="0.75" hidden="1" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" ht="63" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="66">
-      <c r="A5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="49.5">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="49.5">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="33">
-      <c r="A13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="66">
-      <c r="A14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12" t="s">
+      <c r="D18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
+        <v>108</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="49.5">
-      <c r="A15" s="6">
-        <v>1010</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="6">
-        <v>109</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="9">
-        <v>108</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="9">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7">
         <v>107</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1013,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -1021,53 +1152,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="67.75" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="67.75" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
-        <v>16</v>
+      <c r="A3" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
-        <v>29</v>
+      <c r="A8" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
-        <v>41</v>
+      <c r="A9" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="一句描述" sheetId="1" r:id="rId1"/>
-    <sheet name="签名" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="进展表" sheetId="1" r:id="rId1"/>
+    <sheet name="我的目标" sheetId="3" r:id="rId2"/>
+    <sheet name="签名" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>画画</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,14 +167,6 @@
   </si>
   <si>
     <t>知否知否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1026一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、资源文件使用color、diman、list数组
 2、状态列表资源
 3、给activity返回结果</t>
@@ -259,11 +247,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进度</t>
+    <t>做色卡，画了彩铅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日1108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一1026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日1025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破自己以前不敢做的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队小伙伴能力都能提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资理财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插画*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再见武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成程度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,23 +381,50 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -401,14 +484,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -460,37 +555,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -782,11 +892,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -802,64 +912,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A2" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="25">
+      <c r="A3" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="22">
         <v>0.3</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="23">
         <v>0</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="23">
         <v>0.1</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="23">
         <v>0</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="23">
         <v>0.1</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="23">
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,13 +977,13 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
@@ -882,246 +992,262 @@
         <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="0.75" hidden="1" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" ht="63" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" ht="66">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="13" t="s">
+      <c r="D6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="63" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
+      <c r="C7" s="10"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="66">
       <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="14"/>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="49.5">
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>33</v>
+      <c r="F10" s="14"/>
+      <c r="G10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="49.5">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="4"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="F13" s="26"/>
       <c r="G13" s="4"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="49.5">
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="49.5">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" ht="49.5">
-      <c r="A15" s="9" t="s">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="49.5">
+      <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" ht="82.5">
-      <c r="A16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="82.5">
+      <c r="A17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" ht="49.5">
-      <c r="A17" s="5">
+      <c r="G17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" ht="49.5">
+      <c r="A18" s="5">
         <v>1010</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="5">
-        <v>109</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7">
-        <v>108</v>
+      <c r="A19" s="5">
+        <v>109</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>8</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="11"/>
     </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7">
+        <v>107</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1144,6 +1270,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="68.875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="22.5">
+      <c r="A1" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31.5">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="33"/>
+    </row>
+    <row r="3" spans="1:3" ht="31.5">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="32"/>
+    </row>
+    <row r="4" spans="1:3" ht="31.5">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.5">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="32"/>
+    </row>
+    <row r="6" spans="1:3" ht="31.5">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="32"/>
+    </row>
+    <row r="7" spans="1:3" ht="31.5">
+      <c r="A7" s="32">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.5">
+      <c r="A8" s="32">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="32"/>
+    </row>
+    <row r="9" spans="1:3" ht="31.5">
+      <c r="A9" s="32">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1203,24 +1437,11 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>